--- a/Registration.xlsx
+++ b/Registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNA PRASAD P\Desktop\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FD0F0-640D-437E-B104-97C996719EB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78067CD-6DEB-4418-853D-F53835799700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4773697C-E7C6-4F93-8B5C-C8ED62BDC37F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{4773697C-E7C6-4F93-8B5C-C8ED62BDC37F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Manoj Rao </t>
   </si>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t>Prajnesh</t>
+  </si>
+  <si>
+    <t>Rajeev P B</t>
+  </si>
+  <si>
+    <t>Rohith Kumar V</t>
+  </si>
+  <si>
+    <t>Mahesh M</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Amrutha</t>
+  </si>
+  <si>
+    <t>Ajith</t>
+  </si>
+  <si>
+    <t>Shashank</t>
+  </si>
+  <si>
+    <t>Vedaprakash</t>
   </si>
 </sst>
 </file>
@@ -391,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD3D772-A706-43E1-8EF1-30757015BAA3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,6 +451,70 @@
         <v>8746012096</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7676547271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7618751387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8847864904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9620760233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9740306149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7019933547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8105689989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>849703159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Registration.xlsx
+++ b/Registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNA PRASAD P\Desktop\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78067CD-6DEB-4418-853D-F53835799700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FA367-5554-42F9-9B17-FFDBA42FF041}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{4773697C-E7C6-4F93-8B5C-C8ED62BDC37F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Manoj Rao </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Vedaprakash</t>
+  </si>
+  <si>
+    <t>Darshan</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD3D772-A706-43E1-8EF1-30757015BAA3}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +515,15 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>849703159</v>
+        <v>8497031592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9697722116</v>
       </c>
     </row>
   </sheetData>
